--- a/ClassStructure.xlsx
+++ b/ClassStructure.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="99">
   <si>
     <t>CLASS</t>
   </si>
@@ -61,6 +61,9 @@
     <t>C</t>
   </si>
   <si>
+    <t>File originFile</t>
+  </si>
+  <si>
     <t>PrivateFinal变量</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>String originName</t>
   </si>
   <si>
+    <t>String folderPath</t>
+  </si>
+  <si>
     <t>PublicFinal变量</t>
   </si>
   <si>
@@ -121,10 +127,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>（校准名称的文件的绝对路径）</t>
-  </si>
-  <si>
-    <t>Getter</t>
+    <t>（传入的文件的绝对路径）</t>
+  </si>
+  <si>
+    <t>（传入文件的绝对路径）</t>
+  </si>
+  <si>
+    <t>Getter/Setter</t>
   </si>
   <si>
     <t>Ba-Bz</t>
@@ -139,6 +148,9 @@
     <t>Rename(String p)</t>
   </si>
   <si>
+    <t>VideoFolder(String videoPath)</t>
+  </si>
+  <si>
     <t>普通方法</t>
   </si>
   <si>
@@ -151,115 +163,142 @@
     <t>String pathJavaSrcFile()</t>
   </si>
   <si>
+    <t>VideoFolder videoFolder</t>
+  </si>
+  <si>
+    <t>Ba</t>
+  </si>
+  <si>
+    <t>String getOriginName()</t>
+  </si>
+  <si>
+    <t>静态方法</t>
+  </si>
+  <si>
+    <t>a-z</t>
+  </si>
+  <si>
+    <t>返回项目的Bin文件夹的绝对路径</t>
+  </si>
+  <si>
     <t>FFmpeg()</t>
   </si>
   <si>
     <t>f</t>
   </si>
   <si>
-    <t>Ba</t>
-  </si>
-  <si>
-    <t>String getOriginName()</t>
-  </si>
-  <si>
-    <t>静态方法</t>
-  </si>
-  <si>
-    <t>a-z</t>
-  </si>
-  <si>
-    <t>返回项目的Bin文件夹的绝对路径</t>
+    <t>Bc</t>
+  </si>
+  <si>
+    <t>Bb</t>
+  </si>
+  <si>
+    <t>String getNowName()</t>
+  </si>
+  <si>
+    <t>File getOriginFile()</t>
+  </si>
+  <si>
+    <t>MAIN</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>String pathBinFolder()</t>
   </si>
   <si>
     <t>int getWidthInt()</t>
   </si>
   <si>
-    <t>Bb</t>
-  </si>
-  <si>
-    <t>String getNowName()</t>
-  </si>
-  <si>
-    <t>MAIN</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>String pathBinFolder()</t>
+    <t>String getPath()</t>
+  </si>
+  <si>
+    <t>String getFolderPath()</t>
+  </si>
+  <si>
+    <t>返回用户桌面的绝对路径</t>
   </si>
   <si>
     <t>int getHeightInt()</t>
   </si>
   <si>
-    <t>Bc</t>
-  </si>
-  <si>
-    <t>String getPath()</t>
-  </si>
-  <si>
-    <t>返回用户桌面的绝对路径</t>
+    <t>Bd</t>
+  </si>
+  <si>
+    <t>String getNowFilePath()</t>
+  </si>
+  <si>
+    <t>String getVideoPath()</t>
+  </si>
+  <si>
+    <t>boolean batFFS()</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>String pathDesktop()</t>
   </si>
   <si>
     <t>String getCodecName()</t>
   </si>
   <si>
-    <t>Bd</t>
-  </si>
-  <si>
-    <t>String getNowFilePath()</t>
-  </si>
-  <si>
-    <t>boolean batFFS()</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>String pathDesktop()</t>
+    <t>修正文件不合法的部分（如有）</t>
+  </si>
+  <si>
+    <t>void setFileName(String fileName)</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>boolean runBat()</t>
+  </si>
+  <si>
+    <t>弹出文件选择框</t>
   </si>
   <si>
     <t>创建bin\ffs.bat文件</t>
   </si>
   <si>
-    <t>修正文件不合法的部分（如有）</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>boolean runBat()</t>
-  </si>
-  <si>
-    <t>弹出文件选择框</t>
+    <t>void setName()</t>
+  </si>
+  <si>
+    <t>void readLog()</t>
+  </si>
+  <si>
+    <t>返回所选MP4文件的绝对路径</t>
   </si>
   <si>
     <t>用来调用ffmpeg生成视频文件信息</t>
   </si>
   <si>
-    <t>void setName()</t>
-  </si>
-  <si>
-    <t>void readLog()</t>
-  </si>
-  <si>
-    <t>返回所选MP4文件的绝对路径</t>
+    <t>还原文件原名称</t>
+  </si>
+  <si>
+    <t>生成与11同名的文件夹并用D复制文件</t>
+  </si>
+  <si>
+    <t>String pathChooseVideo()</t>
   </si>
   <si>
     <t>得到的数据储存在bin\v.log</t>
   </si>
   <si>
-    <t>还原文件原名称</t>
-  </si>
-  <si>
-    <t>String pathChooseVideo()</t>
-  </si>
-  <si>
     <t>void restoreName()</t>
   </si>
   <si>
+    <t>void setNewFileFolder()</t>
+  </si>
+  <si>
+    <t>复制文件到C生成的文件夹</t>
+  </si>
+  <si>
     <t>boolean batFFR()</t>
+  </si>
+  <si>
+    <t>void copyVideoFile()</t>
   </si>
   <si>
     <t>读取bin\v.log</t>
@@ -279,9 +318,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -313,14 +352,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -329,7 +360,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,51 +371,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -404,8 +390,61 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,9 +458,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,8 +473,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,13 +483,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,7 +540,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,7 +654,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,169 +678,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,6 +823,48 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -804,20 +879,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,56 +919,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -894,10 +927,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -906,137 +939,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1070,6 +1103,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1103,18 +1139,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,9 +1152,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1181,19 +1208,31 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1202,10 +1241,16 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1538,10 +1583,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AS36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1552,34 +1597,36 @@
     <col min="4" max="7" width="2.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="0.158333333333333" style="6" customWidth="1"/>
     <col min="9" max="9" width="2.625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="28.625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="27.0833333333333" style="7" customWidth="1"/>
     <col min="11" max="12" width="2.625" style="5" customWidth="1"/>
     <col min="13" max="13" width="0.158333333333333" style="8" customWidth="1"/>
     <col min="14" max="14" width="2.625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="28.625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="27.775" style="9" customWidth="1"/>
     <col min="16" max="17" width="2.625" style="5" customWidth="1"/>
     <col min="18" max="18" width="0.158333333333333" style="8" customWidth="1"/>
     <col min="19" max="19" width="2.625" style="5" customWidth="1"/>
-    <col min="20" max="20" width="28.625" style="10" customWidth="1"/>
+    <col min="20" max="20" width="25.8333333333333" style="10" customWidth="1"/>
     <col min="21" max="24" width="2.625" style="5" customWidth="1"/>
-    <col min="25" max="25" width="0.158333333333333" style="8" customWidth="1"/>
-    <col min="26" max="26" width="2.625" style="5" customWidth="1"/>
-    <col min="27" max="27" width="28.625" style="11" customWidth="1"/>
-    <col min="28" max="30" width="2.625" style="5" customWidth="1"/>
-    <col min="31" max="31" width="0.158333333333333" style="8" customWidth="1"/>
-    <col min="32" max="32" width="2.625" style="5" customWidth="1"/>
-    <col min="33" max="33" width="28.625" style="12" customWidth="1"/>
-    <col min="34" max="34" width="2.625" style="5" customWidth="1"/>
-    <col min="35" max="35" width="0.158333333333333" style="8" customWidth="1"/>
-    <col min="36" max="36" width="2.625" style="5" customWidth="1"/>
-    <col min="37" max="37" width="28.625" style="13" customWidth="1"/>
-    <col min="38" max="38" width="2.625" style="5" customWidth="1"/>
-    <col min="39" max="39" width="0.158333333333333" style="8" customWidth="1"/>
-    <col min="40" max="41" width="9" style="2"/>
-    <col min="44" max="16384" width="9" style="2"/>
+    <col min="25" max="27" width="2.625" style="11" customWidth="1"/>
+    <col min="28" max="28" width="0.158333333333333" style="8" customWidth="1"/>
+    <col min="29" max="29" width="2.625" style="5" customWidth="1"/>
+    <col min="30" max="30" width="24.025" style="12" customWidth="1"/>
+    <col min="31" max="33" width="2.625" style="5" customWidth="1"/>
+    <col min="34" max="34" width="0.158333333333333" style="8" customWidth="1"/>
+    <col min="35" max="35" width="2.625" style="5" customWidth="1"/>
+    <col min="36" max="36" width="31.25" style="13" customWidth="1"/>
+    <col min="37" max="37" width="2.625" style="5" customWidth="1"/>
+    <col min="38" max="40" width="2.625" style="11" customWidth="1"/>
+    <col min="41" max="41" width="0.158333333333333" style="8" customWidth="1"/>
+    <col min="42" max="42" width="2.625" style="5" customWidth="1"/>
+    <col min="43" max="43" width="28.625" style="14" customWidth="1"/>
+    <col min="44" max="44" width="2.625" style="5" customWidth="1"/>
+    <col min="45" max="45" width="0.158333333333333" style="8" customWidth="1"/>
+    <col min="46" max="47" width="9" style="2"/>
+    <col min="50" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="2:37">
+    <row r="1" ht="14.25" spans="2:43">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1588,86 +1635,92 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="49" t="s">
+      <c r="AD1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="54" t="s">
+      <c r="AJ1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AK1" s="55" t="s">
+      <c r="AQ1" s="60" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="1" customHeight="1" spans="2:39">
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="14"/>
+    <row r="2" s="1" customFormat="1" ht="1" customHeight="1" spans="2:45">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
       <c r="AA2" s="50"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="35"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:30">
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="33"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:37">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="J3" s="37" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="J3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="35" t="s">
         <v>9</v>
       </c>
       <c r="S3" s="24">
         <v>11</v>
       </c>
-      <c r="T3" s="44" t="s">
+      <c r="T3" s="42" t="s">
         <v>10</v>
       </c>
       <c r="U3" s="24" t="s">
@@ -1676,49 +1729,61 @@
       <c r="V3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="48">
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AC3" s="47">
         <v>11</v>
       </c>
-      <c r="AA3" s="51" t="s">
+      <c r="AD3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AB3" s="48" t="s">
+      <c r="AE3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:28">
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AI3" s="58">
+        <v>11</v>
+      </c>
+      <c r="AJ3" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK3" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="2:38">
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="I4" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="32" t="s">
+      <c r="I4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="J4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="33" t="s">
+      <c r="K4" s="26" t="s">
         <v>20</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="S4" s="24">
         <v>12</v>
       </c>
-      <c r="T4" s="44" t="s">
-        <v>21</v>
+      <c r="T4" s="42" t="s">
+        <v>22</v>
       </c>
       <c r="U4" s="24" t="s">
         <v>11</v>
@@ -1726,38 +1791,53 @@
       <c r="V4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="28">
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AC4" s="27">
         <v>21</v>
       </c>
-      <c r="AA4" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB4" s="28" t="s">
+      <c r="AD4" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" spans="2:30">
+      <c r="AI4" s="58">
+        <v>12</v>
+      </c>
+      <c r="AJ4" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK4" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL4" s="58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="2:33">
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="J5" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="37" t="s">
-        <v>26</v>
+      <c r="J5" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="S5" s="24">
         <v>13</v>
       </c>
-      <c r="T5" s="44" t="s">
-        <v>27</v>
+      <c r="T5" s="42" t="s">
+        <v>29</v>
       </c>
       <c r="U5" s="24" t="s">
         <v>11</v>
@@ -1765,97 +1845,108 @@
       <c r="V5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="Z5" s="48">
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AC5" s="47">
         <v>22</v>
       </c>
-      <c r="AA5" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB5" s="48" t="s">
+      <c r="AD5" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-    </row>
-    <row r="6" customFormat="1" ht="15" spans="2:39">
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="40"/>
+    </row>
+    <row r="6" customFormat="1" ht="15" spans="2:45">
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="D6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="42"/>
+      <c r="I6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="40"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>17</v>
+      <c r="N6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="8"/>
-      <c r="S6" s="46">
+      <c r="S6" s="44">
         <v>14</v>
       </c>
-      <c r="T6" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" s="46" t="s">
+      <c r="T6" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="U6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="V6" s="46" t="s">
+      <c r="V6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="8"/>
+      <c r="W6" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="8"/>
-    </row>
-    <row r="7" customFormat="1" ht="15" spans="2:39">
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="8"/>
+    </row>
+    <row r="7" customFormat="1" ht="15" spans="2:45">
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="D7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="6"/>
       <c r="I7" s="5"/>
       <c r="J7" s="7"/>
@@ -1863,238 +1954,298 @@
       <c r="L7" s="5"/>
       <c r="M7" s="8"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="37" t="s">
-        <v>38</v>
+      <c r="O7" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="8"/>
-      <c r="S7" s="46">
+      <c r="S7" s="24">
         <v>31</v>
       </c>
-      <c r="T7" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="U7" s="46" t="s">
+      <c r="T7" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="48" t="s">
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="AA7" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="8"/>
-    </row>
-    <row r="8" ht="15" spans="2:27">
+      <c r="AD7" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ7" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="8"/>
+    </row>
+    <row r="8" ht="15" spans="2:30">
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="N8" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S8" s="46" t="s">
+      <c r="N8" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="44">
+        <v>32</v>
+      </c>
+      <c r="T8" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="U8" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="V8" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="W8" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="X8" s="42"/>
-      <c r="Z8" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA8" s="49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="2:28">
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AC8" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD8" s="49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="2:37">
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="O9" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="S9" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="T9" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="U9" s="24">
+      <c r="O9" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="S9" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="Z9" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA9" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB9" s="28">
+      <c r="T9" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="V9" s="47" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="14.25" spans="1:39">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="W9" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="X9" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y9" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z9" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA9" s="54"/>
+      <c r="AC9" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD9" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE9" s="27">
+        <v>11</v>
+      </c>
+      <c r="AI9" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ9" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK9" s="58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="14.25" spans="1:45">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="23"/>
       <c r="I10" s="5"/>
       <c r="J10" s="7"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>17</v>
+      <c r="N10" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="8"/>
       <c r="S10" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="T10" s="44" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="T10" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="U10" s="24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA10" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB10" s="28">
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD10" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE10" s="27">
         <v>22</v>
       </c>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="8"/>
       <c r="AF10" s="5"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="8"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:30">
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ10" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK10" s="58">
+        <v>12</v>
+      </c>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="8"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:38">
       <c r="A11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="28" t="s">
+      <c r="B11" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="O11" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="S11" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="T11" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="U11" s="46">
-        <v>13</v>
-      </c>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Z11" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA11" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB11" s="48">
+      <c r="O11" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="T11" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="U11" s="24">
+        <v>12</v>
+      </c>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AC11" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD11" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE11" s="47">
         <v>11</v>
       </c>
-      <c r="AC11" s="48">
+      <c r="AF11" s="47">
         <v>22</v>
       </c>
-      <c r="AD11" s="42"/>
-    </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:39">
+      <c r="AG11" s="40"/>
+      <c r="AI11" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ11" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK11" s="58">
+        <v>11</v>
+      </c>
+      <c r="AL11" s="58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="15" spans="1:45">
       <c r="A12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27" t="s">
-        <v>56</v>
+      <c r="B12" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2105,49 +2256,65 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" s="33" t="s">
-        <v>67</v>
+      <c r="N12" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="8"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="37" t="s">
+      <c r="S12" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="T12" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="U12" s="44">
+        <v>13</v>
+      </c>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="8"/>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AJ12" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK12" s="58">
+        <v>11</v>
+      </c>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="8"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:31">
       <c r="A13" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="26"/>
+        <v>78</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="25"/>
       <c r="D13" s="24">
         <v>14</v>
       </c>
@@ -2155,128 +2322,170 @@
         <v>14</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="O13" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="T13" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z13" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="T13" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AC13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AA13" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB13" s="28">
+      <c r="AD13" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE13" s="27">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:36">
       <c r="A14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="26"/>
+      <c r="B14" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="25"/>
       <c r="D14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="T14" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AD14" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ14" s="35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="14:45">
+      <c r="N15" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="O14" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="T14" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA14" s="37" t="s">
+      <c r="O15" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="40"/>
+      <c r="T15" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AC15" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD15" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE15" s="47">
+        <v>21</v>
+      </c>
+      <c r="AF15" s="47">
+        <v>22</v>
+      </c>
+      <c r="AG15" s="40"/>
+      <c r="AI15" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ15" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK15" s="58">
+        <v>11</v>
+      </c>
+      <c r="AL15" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM15" s="59"/>
+      <c r="AN15" s="59"/>
+      <c r="AO15" s="8"/>
+      <c r="AS15" s="62"/>
+    </row>
+    <row r="16" ht="14.25" spans="19:36">
+      <c r="S16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="T16" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="U16" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="V16" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="W16" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AD16" s="49"/>
+      <c r="AJ16" s="35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38">
+      <c r="A17" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="T17" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AI17" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ17" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK17" s="58">
+        <v>11</v>
+      </c>
+      <c r="AL17" s="58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" ht="14.25" spans="14:39">
-      <c r="N15" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="O15" s="43" t="s">
+      <c r="B18" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="P15" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q15" s="42"/>
-      <c r="S15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="T15" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="U15" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z15" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA15" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB15" s="48">
-        <v>21</v>
-      </c>
-      <c r="AC15" s="48">
-        <v>22</v>
-      </c>
-      <c r="AD15" s="42"/>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="58"/>
-    </row>
-    <row r="16" ht="14.25" spans="20:27">
-      <c r="T16" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA16" s="49"/>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="S17" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="T17" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="U17" s="27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="24">
         <v>14</v>
       </c>
@@ -2284,16 +2493,33 @@
         <v>14</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="T18" s="37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="2:39">
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
+        <v>36</v>
+      </c>
+      <c r="S18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="T18" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="U18" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="W18" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="X18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+    </row>
+    <row r="19" customFormat="1" spans="2:45">
+      <c r="B19" s="5"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -2310,32 +2536,38 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="8"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="37" t="s">
-        <v>83</v>
+      <c r="T19" s="35" t="s">
+        <v>95</v>
       </c>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="8"/>
+      <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="8"/>
       <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="8"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="8"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="8"/>
-    </row>
-    <row r="20" customFormat="1" spans="2:39">
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="8"/>
+    </row>
+    <row r="20" customFormat="1" spans="2:45">
+      <c r="B20" s="5"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -2351,39 +2583,39 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="8"/>
-      <c r="S20" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="T20" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="U20" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="V20" s="27" t="s">
-        <v>56</v>
-      </c>
+      <c r="S20" s="5"/>
+      <c r="T20" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
-      <c r="Y20" s="8"/>
+      <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="8"/>
       <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="8"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="8"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="8"/>
-    </row>
-    <row r="21" customFormat="1" spans="2:39">
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="8"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="8"/>
+    </row>
+    <row r="21" customFormat="1" spans="2:45">
+      <c r="B21" s="5"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -2399,33 +2631,45 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="8"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
+      <c r="S21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="U21" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="V21" s="26" t="s">
+        <v>62</v>
+      </c>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="8"/>
+      <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="8"/>
       <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="8"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="8"/>
-    </row>
-    <row r="22" customFormat="1" spans="2:39">
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="8"/>
+    </row>
+    <row r="22" customFormat="1" spans="2:45">
+      <c r="B22" s="5"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2442,32 +2686,38 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="8"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="37" t="s">
-        <v>85</v>
+      <c r="T22" s="35" t="s">
+        <v>97</v>
       </c>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="8"/>
+      <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="8"/>
       <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="8"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="8"/>
-    </row>
-    <row r="23" customFormat="1" ht="14.25" spans="2:39">
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="14"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="8"/>
+    </row>
+    <row r="23" customFormat="1" ht="14.25" spans="2:45">
+      <c r="B23" s="5"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2483,41 +2733,39 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="T23" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="U23" s="46">
-        <v>14</v>
-      </c>
-      <c r="V23" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="W23" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="8"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="8"/>
       <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="8"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="8"/>
-    </row>
-    <row r="24" customFormat="1" ht="14.25" spans="2:39">
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="8"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="14"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="8"/>
+    </row>
+    <row r="24" customFormat="1" ht="14.25" spans="2:45">
+      <c r="B24" s="5"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -2533,29 +2781,47 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="8"/>
-      <c r="T24" s="44"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="5"/>
+      <c r="S24" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="T24" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="U24" s="44">
+        <v>14</v>
+      </c>
+      <c r="V24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="W24" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="8"/>
       <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="8"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="13"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="8"/>
-    </row>
-    <row r="25" customFormat="1" spans="2:39">
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="11"/>
+      <c r="AN24" s="11"/>
+      <c r="AO24" s="8"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="8"/>
+    </row>
+    <row r="25" customFormat="1" ht="14.25" spans="2:45">
+      <c r="B25" s="5"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -2571,29 +2837,35 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="8"/>
-      <c r="T25" s="44"/>
+      <c r="T25" s="42"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
-      <c r="Y25" s="8"/>
+      <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="8"/>
       <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="8"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="13"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="8"/>
-    </row>
-    <row r="26" customFormat="1" spans="2:39">
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="11"/>
+      <c r="AO25" s="8"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="5"/>
+      <c r="AS25" s="8"/>
+    </row>
+    <row r="26" customFormat="1" spans="2:45">
+      <c r="B26" s="5"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -2609,29 +2881,35 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="8"/>
-      <c r="T26" s="44"/>
+      <c r="T26" s="42"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
-      <c r="Y26" s="8"/>
+      <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="8"/>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="8"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="8"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="13"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="8"/>
-    </row>
-    <row r="27" customFormat="1" spans="2:39">
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="8"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="14"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="8"/>
+    </row>
+    <row r="27" customFormat="1" spans="2:45">
+      <c r="B27" s="5"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -2647,29 +2925,35 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="8"/>
-      <c r="T27" s="44"/>
+      <c r="T27" s="42"/>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
-      <c r="Y27" s="8"/>
+      <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="8"/>
       <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="8"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="8"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="8"/>
-    </row>
-    <row r="28" customFormat="1" spans="2:39">
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="8"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="14"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="8"/>
+    </row>
+    <row r="28" customFormat="1" spans="2:45">
       <c r="B28" s="3"/>
-      <c r="C28" s="31"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -2689,25 +2973,31 @@
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
-      <c r="Y28" s="8"/>
+      <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="8"/>
       <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="8"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="8"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="13"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="8"/>
-    </row>
-    <row r="29" customFormat="1" spans="2:39">
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="8"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="14"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="8"/>
+    </row>
+    <row r="29" customFormat="1" spans="2:45">
       <c r="B29" s="3"/>
-      <c r="C29" s="31"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -2727,25 +3017,31 @@
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="5"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
       <c r="AA29" s="11"/>
-      <c r="AB29" s="5"/>
+      <c r="AB29" s="8"/>
       <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="8"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="8"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="8"/>
-    </row>
-    <row r="30" customFormat="1" spans="2:39">
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="8"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="14"/>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="8"/>
+    </row>
+    <row r="30" customFormat="1" spans="2:45">
       <c r="B30" s="3"/>
-      <c r="C30" s="31"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -2765,25 +3061,31 @@
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="5"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
-      <c r="AB30" s="5"/>
+      <c r="AB30" s="8"/>
       <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="8"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="8"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="13"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="8"/>
-    </row>
-    <row r="31" customFormat="1" spans="2:39">
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="8"/>
+      <c r="AP30" s="5"/>
+      <c r="AQ30" s="14"/>
+      <c r="AR30" s="5"/>
+      <c r="AS30" s="8"/>
+    </row>
+    <row r="31" customFormat="1" spans="2:45">
       <c r="B31" s="3"/>
-      <c r="C31" s="31"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -2805,24 +3107,30 @@
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="5"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
-      <c r="AB31" s="5"/>
+      <c r="AB31" s="8"/>
       <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="8"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="8"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="13"/>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="8"/>
-    </row>
-    <row r="32" customFormat="1" spans="3:39">
-      <c r="C32" s="31"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="8"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="14"/>
+      <c r="AR31" s="5"/>
+      <c r="AS31" s="8"/>
+    </row>
+    <row r="32" customFormat="1" spans="3:45">
+      <c r="C32" s="29"/>
       <c r="H32" s="6"/>
       <c r="I32" s="5"/>
       <c r="J32" s="7"/>
@@ -2840,25 +3148,31 @@
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="5"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
-      <c r="AB32" s="5"/>
+      <c r="AB32" s="8"/>
       <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="8"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
-      <c r="AG32" s="12"/>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="8"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="13"/>
-      <c r="AL32" s="5"/>
-      <c r="AM32" s="8"/>
-    </row>
-    <row r="33" customFormat="1" spans="2:39">
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="11"/>
+      <c r="AM32" s="11"/>
+      <c r="AN32" s="11"/>
+      <c r="AO32" s="8"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="14"/>
+      <c r="AR32" s="5"/>
+      <c r="AS32" s="8"/>
+    </row>
+    <row r="33" customFormat="1" spans="2:45">
       <c r="B33" s="3"/>
-      <c r="C33" s="31"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -2880,25 +3194,31 @@
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="5"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
-      <c r="AB33" s="5"/>
+      <c r="AB33" s="8"/>
       <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="8"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="8"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="13"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="8"/>
-    </row>
-    <row r="34" customFormat="1" spans="2:39">
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="8"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="14"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="8"/>
+    </row>
+    <row r="34" customFormat="1" spans="2:45">
       <c r="B34" s="3"/>
-      <c r="C34" s="31"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -2920,25 +3240,31 @@
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="5"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
-      <c r="AB34" s="5"/>
+      <c r="AB34" s="8"/>
       <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="8"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="8"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="13"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="8"/>
-    </row>
-    <row r="35" customFormat="1" spans="2:39">
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="13"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="8"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="14"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="8"/>
+    </row>
+    <row r="35" customFormat="1" spans="2:45">
       <c r="B35" s="3"/>
-      <c r="C35" s="31"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -2960,25 +3286,31 @@
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="5"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
       <c r="AA35" s="11"/>
-      <c r="AB35" s="5"/>
+      <c r="AB35" s="8"/>
       <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="8"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
-      <c r="AG35" s="12"/>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="8"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="13"/>
-      <c r="AL35" s="5"/>
-      <c r="AM35" s="8"/>
-    </row>
-    <row r="36" customFormat="1" spans="2:39">
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="8"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="14"/>
+      <c r="AR35" s="5"/>
+      <c r="AS35" s="8"/>
+    </row>
+    <row r="36" customFormat="1" spans="2:45">
       <c r="B36" s="3"/>
-      <c r="C36" s="31"/>
+      <c r="C36" s="29"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3000,21 +3332,27 @@
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="5"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
-      <c r="AB36" s="5"/>
+      <c r="AB36" s="8"/>
       <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="8"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
-      <c r="AG36" s="12"/>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="8"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="13"/>
-      <c r="AL36" s="5"/>
-      <c r="AM36" s="8"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="11"/>
+      <c r="AN36" s="11"/>
+      <c r="AO36" s="8"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="14"/>
+      <c r="AR36" s="5"/>
+      <c r="AS36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="31">
